--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05050411509961661</v>
+        <v>-0.1116691924315629</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.224125323562228</v>
+        <v>-1.168487262354351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268176053457958</v>
+        <v>0.01095464815799552</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3378084916136792</v>
+        <v>-0.4044515863559262</v>
       </c>
       <c r="F2" t="n">
-        <v>1.162598490715027</v>
+        <v>1.230290293693542</v>
       </c>
       <c r="G2" t="n">
-        <v>1.448103189468384</v>
+        <v>1.338636517524719</v>
       </c>
       <c r="H2" t="n">
-        <v>0.733026921749115</v>
+        <v>0.5054377317428589</v>
       </c>
       <c r="I2" t="n">
-        <v>1.111596584320068</v>
+        <v>0.9465429782867432</v>
       </c>
     </row>
     <row r="3">
@@ -513,741 +513,648 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02699006329097942</v>
+        <v>-0.03072692416193235</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9398576763663471</v>
+        <v>-0.8895490735474945</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.005255444909532558</v>
+        <v>-0.02068650589514398</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3749967105779139</v>
+        <v>-0.280480688069662</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13657546043396</v>
+        <v>1.140710949897766</v>
       </c>
       <c r="G3" t="n">
-        <v>1.263019800186157</v>
+        <v>1.166444301605225</v>
       </c>
       <c r="H3" t="n">
-        <v>1.006907939910889</v>
+        <v>0.5216074585914612</v>
       </c>
       <c r="I3" t="n">
-        <v>1.142496705055237</v>
+        <v>0.8629916310310364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_3</t>
+          <t>model_2_0_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1397484078975125</v>
+        <v>0.02789344608488642</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4504390308060859</v>
+        <v>-0.4850405088568757</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9401160440729062</v>
+        <v>-0.2989322279059716</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7022982263914666</v>
+        <v>-0.1836141138045986</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9520449638366699</v>
+        <v>1.075835466384888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9443645477294922</v>
+        <v>0.9167355298995972</v>
       </c>
       <c r="H4" t="n">
-        <v>1.943305134773254</v>
+        <v>0.6638010740280151</v>
       </c>
       <c r="I4" t="n">
-        <v>1.414454221725464</v>
+        <v>0.7977074980735779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_2</t>
+          <t>model_2_0_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1903035837509058</v>
+        <v>0.03490790739239602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0693279790919431</v>
+        <v>-0.4996354503766627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01076954170491806</v>
+        <v>-0.2714205842754098</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0527448675559371</v>
+        <v>-0.1808746918088424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8960952758789062</v>
+        <v>1.06807267665863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6059501171112061</v>
+        <v>0.9257452487945557</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9908565878868103</v>
+        <v>0.6497415900230408</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7870824933052063</v>
+        <v>0.7958613038063049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_5</t>
+          <t>model_2_0_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6180854887544582</v>
+        <v>0.05048773079356439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5212349454739655</v>
+        <v>-0.4781944518018022</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8714925372162901</v>
+        <v>-0.2472191346941528</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2602803272927068</v>
+        <v>-0.1618416210342182</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4226668179035187</v>
+        <v>1.050830245018005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3117185831069946</v>
+        <v>0.9125095009803772</v>
       </c>
       <c r="H6" t="n">
-        <v>1.874568939208984</v>
+        <v>0.6373738050460815</v>
       </c>
       <c r="I6" t="n">
-        <v>1.047177791595459</v>
+        <v>0.7830337882041931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_4</t>
+          <t>model_2_0_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6233437273457487</v>
+        <v>0.0795293074286908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4440022607169478</v>
+        <v>-0.4673792184961558</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.730626508794435</v>
+        <v>-0.1790631184230553</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.212407715082964</v>
+        <v>-0.1322772721412313</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4168474972248077</v>
+        <v>1.018689870834351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3620039224624634</v>
+        <v>0.9058330059051514</v>
       </c>
       <c r="H7" t="n">
-        <v>1.733471393585205</v>
+        <v>0.6025435924530029</v>
       </c>
       <c r="I7" t="n">
-        <v>1.007400035858154</v>
+        <v>0.7631086111068726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_11</t>
+          <t>model_2_0_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.705047295605445</v>
+        <v>0.09128341483821201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6432283718940313</v>
+        <v>-0.5743596362407899</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7727964252389465</v>
+        <v>-0.129238178085513</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1536836046916343</v>
+        <v>-0.1663746861103768</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3264257311820984</v>
+        <v>1.005681395530701</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2322900295257568</v>
+        <v>0.9718735218048096</v>
       </c>
       <c r="H8" t="n">
-        <v>1.775710582733154</v>
+        <v>0.5770812630653381</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9586055874824524</v>
+        <v>0.7860888242721558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_10</t>
+          <t>model_2_0_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7071879691431341</v>
+        <v>0.1035518332409231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6344629118609535</v>
+        <v>-0.54195770083781</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7378307558547861</v>
+        <v>-0.0991243681916818</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1374841819471488</v>
+        <v>-0.1399171106663188</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3240566253662109</v>
+        <v>0.9921039938926697</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2379971146583557</v>
+        <v>0.9518713355064392</v>
       </c>
       <c r="H9" t="n">
-        <v>1.740687489509583</v>
+        <v>0.5616920590400696</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9451454281806946</v>
+        <v>0.7682575583457947</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_7</t>
+          <t>model_2_0_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7128585893585813</v>
+        <v>0.1048417575680565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.612261767766178</v>
+        <v>-0.5475431704420253</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6237581632876192</v>
+        <v>-0.09111689224449848</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08198248977585099</v>
+        <v>-0.1397682888418885</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3177809119224548</v>
+        <v>0.9906764030456543</v>
       </c>
       <c r="G10" t="n">
-        <v>0.25245201587677</v>
+        <v>0.9553192853927612</v>
       </c>
       <c r="H10" t="n">
-        <v>1.626427292823792</v>
+        <v>0.5575999021530151</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8990285992622375</v>
+        <v>0.7681572437286377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_6</t>
+          <t>model_2_0_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7197084426337712</v>
+        <v>0.1051498466166808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5814910827014057</v>
+        <v>-0.548298422195068</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5374843785540111</v>
+        <v>-0.0889979756492536</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04580586851319945</v>
+        <v>-0.1393785596194077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3102001547813416</v>
+        <v>0.9903354644775391</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2724864780902863</v>
+        <v>0.9557855129241943</v>
       </c>
       <c r="H11" t="n">
-        <v>1.540011644363403</v>
+        <v>0.5565170645713806</v>
       </c>
       <c r="I11" t="n">
-        <v>0.868969202041626</v>
+        <v>0.7678945660591125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_8</t>
+          <t>model_2_0_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7256084312510165</v>
+        <v>0.1055527487061253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6374541099708955</v>
+        <v>-0.544213914595415</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5508095305105449</v>
+        <v>-0.08935958452450166</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03014928044497966</v>
+        <v>-0.1375268953642821</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3036706149578094</v>
+        <v>0.9898895621299744</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2360495775938034</v>
+        <v>0.9532641172409058</v>
       </c>
       <c r="H12" t="n">
-        <v>1.553358793258667</v>
+        <v>0.5567018389701843</v>
       </c>
       <c r="I12" t="n">
-        <v>0.855959951877594</v>
+        <v>0.7666466236114502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_9</t>
+          <t>model_2_0_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7363019209873505</v>
+        <v>0.1057828487364876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6902146532967675</v>
+        <v>-0.5431030860147146</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5304690448682405</v>
+        <v>-0.08762109535155238</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003276590159798531</v>
+        <v>-0.1363679234409256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2918360829353333</v>
+        <v>0.9896349310874939</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2016977816820145</v>
+        <v>0.9525784254074097</v>
       </c>
       <c r="H13" t="n">
-        <v>1.532984852790833</v>
+        <v>0.5558134317398071</v>
       </c>
       <c r="I13" t="n">
-        <v>0.82818603515625</v>
+        <v>0.7658655643463135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_16</t>
+          <t>model_2_0_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7777410392780265</v>
+        <v>0.105877135790324</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5455812361753068</v>
+        <v>-0.5417579689820391</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2539785465743432</v>
+        <v>-0.08801320061981244</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1001267768025401</v>
+        <v>-0.135855547007101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2459751814603806</v>
+        <v>0.9895305633544922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.295866996049881</v>
+        <v>0.9517481327056885</v>
       </c>
       <c r="H14" t="n">
-        <v>1.25603985786438</v>
+        <v>0.556013822555542</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7477124929428101</v>
+        <v>0.7655202150344849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_14</t>
+          <t>model_2_0_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7784969665532798</v>
+        <v>0.1061101087350805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5370476169103324</v>
+        <v>-0.5388604121024672</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2412976551183752</v>
+        <v>-0.08848636580733271</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1037803693982161</v>
+        <v>-0.134619223556312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2451386004686356</v>
+        <v>0.9892727136611938</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3014231324195862</v>
+        <v>0.9499593377113342</v>
       </c>
       <c r="H15" t="n">
-        <v>1.243338108062744</v>
+        <v>0.556255578994751</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7446765899658203</v>
+        <v>0.7646870613098145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_15</t>
+          <t>model_2_0_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.778815274322218</v>
+        <v>0.1061197239702412</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5392077041273846</v>
+        <v>-0.5388051029080809</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2406210828207416</v>
+        <v>-0.08842507915592179</v>
       </c>
       <c r="E16" t="n">
-        <v>0.105058710217243</v>
+        <v>-0.1345705566833553</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2447863072156906</v>
+        <v>0.9892620444297791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3000167310237885</v>
+        <v>0.9499253034591675</v>
       </c>
       <c r="H16" t="n">
-        <v>1.242660403251648</v>
+        <v>0.5562242865562439</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7436144948005676</v>
+        <v>0.7646541595458984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_19</t>
+          <t>model_2_0_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7793410083794762</v>
+        <v>0.1063548692600413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5399603349891204</v>
+        <v>-0.5369043855157176</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2402806782739226</v>
+        <v>-0.08749645086726399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.105564997800447</v>
+        <v>-0.1333174625567273</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2442044764757156</v>
+        <v>0.9890019297599792</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2995266914367676</v>
+        <v>0.9487518668174744</v>
       </c>
       <c r="H17" t="n">
-        <v>1.242319464683533</v>
+        <v>0.5557497143745422</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7431937456130981</v>
+        <v>0.7638096213340759</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_24</t>
+          <t>model_2_0_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.780190165765108</v>
+        <v>0.1064499290018753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5316536836824381</v>
+        <v>-0.5363708606904387</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2314135069636005</v>
+        <v>-0.0868037926111076</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1071482609199848</v>
+        <v>-0.1328116483704282</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2432647198438644</v>
+        <v>0.9888966679573059</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3049350678920746</v>
+        <v>0.9484225511550903</v>
       </c>
       <c r="H18" t="n">
-        <v>1.233437776565552</v>
+        <v>0.555395781993866</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7418782114982605</v>
+        <v>0.7634687423706055</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_13</t>
+          <t>model_2_0_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7801921150041289</v>
+        <v>0.1065233054915827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5558864020471488</v>
+        <v>-0.5355036481673132</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2413742876861384</v>
+        <v>-0.08688596921883529</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1115515059706578</v>
+        <v>-0.1324204620900151</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2432625591754913</v>
+        <v>0.9888154268264771</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2891574203968048</v>
+        <v>0.947887122631073</v>
       </c>
       <c r="H19" t="n">
-        <v>1.243414878845215</v>
+        <v>0.5554378032684326</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7382195591926575</v>
+        <v>0.7632050514221191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_12</t>
+          <t>model_2_0_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7812934202326078</v>
+        <v>0.1065233054915827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5590982017977429</v>
+        <v>-0.5355036481673132</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2348465153240888</v>
+        <v>-0.08688596921883529</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1165864884693163</v>
+        <v>-0.1324204620900151</v>
       </c>
       <c r="F20" t="n">
-        <v>0.242043748497963</v>
+        <v>0.9888154268264771</v>
       </c>
       <c r="G20" t="n">
-        <v>0.287066251039505</v>
+        <v>0.947887122631073</v>
       </c>
       <c r="H20" t="n">
-        <v>1.236876487731934</v>
+        <v>0.5554378032684326</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7340359687805176</v>
+        <v>0.7632050514221191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_17</t>
+          <t>model_2_0_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7813667074339483</v>
+        <v>0.1065233054915827</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5400448256045165</v>
+        <v>-0.5355036481673132</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2237709273786239</v>
+        <v>-0.08688596921883529</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1149655755918492</v>
+        <v>-0.1324204620900151</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2419626265764236</v>
+        <v>0.9888154268264771</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2994716763496399</v>
+        <v>0.947887122631073</v>
       </c>
       <c r="H21" t="n">
-        <v>1.225782513618469</v>
+        <v>0.5554378032684326</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7353827357292175</v>
+        <v>0.7632050514221191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_23</t>
+          <t>model_2_0_18</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7817270444291731</v>
+        <v>0.1065234553996213</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5377207675773523</v>
+        <v>-0.5355025330923284</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2236791859679346</v>
+        <v>-0.08688407504000861</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1140535156544865</v>
+        <v>-0.1324192123935768</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2415638715028763</v>
+        <v>0.9888152480125427</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3009848594665527</v>
+        <v>0.94788658618927</v>
       </c>
       <c r="H22" t="n">
-        <v>1.225690722465515</v>
+        <v>0.5554367899894714</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7361405491828918</v>
+        <v>0.7632042765617371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_18</t>
+          <t>model_2_0_17</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7819467578780122</v>
+        <v>0.1065385361164388</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5457035536480344</v>
+        <v>-0.535304967687114</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2237060819168946</v>
+        <v>-0.08692146679067658</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1173496997424454</v>
+        <v>-0.1323368537891831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2413206994533539</v>
+        <v>0.9887985587120056</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2957873642444611</v>
+        <v>0.94776451587677</v>
       </c>
       <c r="H23" t="n">
-        <v>1.225717663764954</v>
+        <v>0.5554559230804443</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7334017753601074</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_2_0_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.7827769518635374</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.538523218948333</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.2158636801031881</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1188196178442483</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2404019087553024</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3004623651504517</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.217862367630005</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.7321804165840149</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_2_0_21</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.7844573896944501</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.545736678079308</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.2081231144645894</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1262035672612609</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2385421693325043</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.29576575756073</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.210109114646912</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.7260450124740601</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_2_0_20</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.7859180436638407</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5407931603356233</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.1921736222699326</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1331993675176527</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2369256317615509</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.2989844083786011</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.194133400917053</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.7202321290969849</v>
+        <v>0.7631487846374512</v>
       </c>
     </row>
   </sheetData>
